--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42999,6 +42999,41 @@
         <v>310800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>293100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43034,6 +43034,41 @@
         <v>293100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>145800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43069,6 +43069,41 @@
         <v>145800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>600700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43104,6 +43104,41 @@
         <v>600700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>170900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43139,6 +43139,41 @@
         <v>170900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>216700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43174,6 +43174,41 @@
         <v>216700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>200400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43209,6 +43209,41 @@
         <v>200400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>113000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43244,6 +43244,41 @@
         <v>113000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>558700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43279,6 +43279,41 @@
         <v>558700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>423900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43314,6 +43314,41 @@
         <v>423900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1356600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43349,6 +43349,41 @@
         <v>1356600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1768000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43384,6 +43384,41 @@
         <v>1768000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1632700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43419,6 +43419,76 @@
         <v>1632700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>341800</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1539000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43489,6 +43489,76 @@
         <v>1539000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1194100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1568500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43559,6 +43559,41 @@
         <v>1568500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>976100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43594,6 +43594,41 @@
         <v>976100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>909800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43629,6 +43629,41 @@
         <v>909800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>640400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43664,6 +43664,41 @@
         <v>640400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>804100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43699,6 +43699,76 @@
         <v>804100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>467800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>315700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43769,6 +43769,41 @@
         <v>315700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>976900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43804,6 +43804,41 @@
         <v>976900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2224300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2056"/>
+  <dimension ref="A1:I2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72364,6 +72364,41 @@
         <v>2224300</v>
       </c>
     </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2057" t="n">
+        <v>953600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2057"/>
+  <dimension ref="A1:I2058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72399,6 +72399,41 @@
         <v>953600</v>
       </c>
     </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2058" t="n">
+        <v>955800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2058"/>
+  <dimension ref="A1:I2059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72434,6 +72434,41 @@
         <v>955800</v>
       </c>
     </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2059" t="n">
+        <v>636500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2059"/>
+  <dimension ref="A1:I2060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72469,6 +72469,41 @@
         <v>636500</v>
       </c>
     </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2060" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2060" t="n">
+        <v>2048700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2060"/>
+  <dimension ref="A1:I2061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72504,6 +72504,41 @@
         <v>2048700</v>
       </c>
     </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2061" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2061" t="n">
+        <v>2568800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2061"/>
+  <dimension ref="A1:I2062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72539,6 +72539,41 @@
         <v>2568800</v>
       </c>
     </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2062" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2062" t="n">
+        <v>1388000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2062"/>
+  <dimension ref="A1:I2063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72574,6 +72574,41 @@
         <v>1388000</v>
       </c>
     </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2063" t="n">
+        <v>1673400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2063"/>
+  <dimension ref="A1:I2064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72609,6 +72609,41 @@
         <v>1673400</v>
       </c>
     </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2064" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2064" t="n">
+        <v>1719100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2064"/>
+  <dimension ref="A1:I2065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72644,6 +72644,41 @@
         <v>1719100</v>
       </c>
     </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2065" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2065" t="n">
+        <v>8660900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2065"/>
+  <dimension ref="A1:I2066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72679,6 +72679,41 @@
         <v>8660900</v>
       </c>
     </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2066" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2066" t="n">
+        <v>3378800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2066"/>
+  <dimension ref="A1:I2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72714,6 +72714,41 @@
         <v>3378800</v>
       </c>
     </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2067" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2067" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2067" t="n">
+        <v>1297100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2067"/>
+  <dimension ref="A1:I2068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72749,6 +72749,41 @@
         <v>1297100</v>
       </c>
     </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2068" t="n">
+        <v>1587700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2068"/>
+  <dimension ref="A1:I2069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72784,6 +72784,41 @@
         <v>1587700</v>
       </c>
     </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2069" t="n">
+        <v>2922000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2069"/>
+  <dimension ref="A1:I2070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72819,6 +72819,41 @@
         <v>2922000</v>
       </c>
     </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2070" t="n">
+        <v>2648700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2070"/>
+  <dimension ref="A1:I2071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72854,6 +72854,41 @@
         <v>2648700</v>
       </c>
     </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2071" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2071" t="n">
+        <v>1080500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2252"/>
+  <dimension ref="A1:I2253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79224,6 +79224,41 @@
         <v>1080500</v>
       </c>
     </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2253" t="n">
+        <v>21274000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2253"/>
+  <dimension ref="A1:I2254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79259,6 +79259,41 @@
         <v>21274000</v>
       </c>
     </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>6124100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2254"/>
+  <dimension ref="A1:I2255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79294,6 +79294,41 @@
         <v>6124100</v>
       </c>
     </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2255" t="n">
+        <v>3818700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2255"/>
+  <dimension ref="A1:I2256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79329,6 +79329,41 @@
         <v>3818700</v>
       </c>
     </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2256" t="n">
+        <v>1877100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2256"/>
+  <dimension ref="A1:I2257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79364,6 +79364,41 @@
         <v>1877100</v>
       </c>
     </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2257" t="n">
+        <v>2091500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2257"/>
+  <dimension ref="A1:I2258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79399,6 +79399,41 @@
         <v>2091500</v>
       </c>
     </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2258" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2258"/>
+  <dimension ref="A1:I2259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79434,6 +79434,41 @@
         <v>1977500</v>
       </c>
     </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2259" t="n">
+        <v>1143400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2259"/>
+  <dimension ref="A1:I2260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79469,6 +79469,41 @@
         <v>1143400</v>
       </c>
     </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2260" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2260" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2260" t="n">
+        <v>1447200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2260"/>
+  <dimension ref="A1:I2261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79504,6 +79504,41 @@
         <v>1447200</v>
       </c>
     </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2261" t="n">
+        <v>2007300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2261"/>
+  <dimension ref="A1:I2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79539,6 +79539,41 @@
         <v>2007300</v>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>3028200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2262"/>
+  <dimension ref="A1:I2264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79574,6 +79574,76 @@
         <v>3028200</v>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>3581300</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>1347300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2264"/>
+  <dimension ref="A1:I2265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79644,6 +79644,41 @@
         <v>1347300</v>
       </c>
     </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>1436500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2265"/>
+  <dimension ref="A1:I2268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79679,6 +79679,111 @@
         <v>1436500</v>
       </c>
     </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2266" t="n">
+        <v>1521100</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2267" t="n">
+        <v>20175500</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2268" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2268" t="n">
+        <v>8750800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2268"/>
+  <dimension ref="A1:I2269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79784,6 +79784,41 @@
         <v>8750800</v>
       </c>
     </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2269" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2269" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2269" t="n">
+        <v>6274700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2269"/>
+  <dimension ref="A1:I2270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79819,6 +79819,41 @@
         <v>6274700</v>
       </c>
     </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2270" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2270" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2270" t="n">
+        <v>2865600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7249.xlsx
+++ b/data/7249.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2270"/>
+  <dimension ref="A1:I2273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79854,6 +79854,111 @@
         <v>2865600</v>
       </c>
     </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2271" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2271" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2271" t="n">
+        <v>1805500</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2272" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2272" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2272" t="n">
+        <v>1351100</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>7249</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>EWEIN</t>
+        </is>
+      </c>
+      <c r="E2273" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2273" t="n">
+        <v>1956400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
